--- a/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_51.xlsx
+++ b/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_51.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,628 +488,642 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_93</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_138</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['F:7', 'A#:min', 'A#:min']]</t>
-        </is>
+          <t>schubert-winterreise_111</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_118</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.07728085867620751</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:min', 'A:min']]</t>
+          <t>[['G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(16.26, 21.14)]</t>
+          <t>[['A:min', 'B:hdim7/D', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(7.54, 16.72)]</t>
+          <t>[('0:01:36.200000', '0:01:53.760000')]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
+          <t>[('0:00:11.060000', '0:00:17.280000')]</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_71</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_109</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['C:min', 'G:7/D', 'C:min', 'G:7/D', 'C:min', 'G:7', 'C:min', 'C:min', 'G:7', 'C:min', 'C:min', 'C:min/G', 'G:7', 'C:(3,5,b7,b9)/E', 'F:min', 'C:maj/G', 'G:7', 'C:min', 'G:7/D', 'C:min', 'G:7/D', 'C:min', 'D#:maj/A#', 'A#:7', 'D#:maj', 'G:(3,5,b7,b9)/B', 'A#:7', 'D#:maj/A#', 'A#:maj', 'G:(3,5,b7,b9)/B', 'A#:7', 'D#:maj/A#', 'A#:7', 'D#:maj', 'C:min/G', 'G:7', 'C:min', 'G:7/D', 'C:min', 'G:7/D', 'C:min', 'G:7', 'C:min']]</t>
-        </is>
+          <t>schubert-winterreise_130</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_117</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.7083333333333333</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min', 'D:min', 'D:min/A', 'A:7', 'D:(3,5,b7,b9)/F#', 'G:min', 'D:maj/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'F:maj/C', 'C:7', 'F:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:7', 'F:maj', 'D:min/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min']]</t>
+          <t>[['B:7', 'E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(0.36, 147.72)]</t>
+          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(1.54, 138.86)]</t>
+          <t>[('0:00:16.440000', '0:00:45.540000')]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>[('0:00:27.760000', '0:00:40.180000')]</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_164</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_173</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.2753623188405797</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_143</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_19</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.09779367918902802</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['G:min', 'C:min/G', 'G:min', 'D:7', 'G:min']]</t>
+          <t>[['D:maj/F#', 'A:7', 'D:maj', 'B:min']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(14.52, 29.1)]</t>
+          <t>[['F:maj/C', 'C:7', 'F:maj', 'D:min/A']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(0.22, 5.02)]</t>
+          <t>[('0:00:35.140000', '0:00:42.320000')]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>[('0:01:36.260000', '0:01:47.180000')]</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_164</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_26</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.2666666666666667</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:min', 'E:7', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_102</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_88</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['A#:min', 'F:min', 'C:7', 'F:min']]</t>
+          <t>[['D:7', 'G:maj', 'G:maj', 'D:7/F#', 'B:7', 'E:min', 'G:maj/D', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(18.24, 29.1)]</t>
+          <t>[['E:7', 'A:maj', 'A:maj', 'E:7/G#', 'C#:7', 'F#:min', 'A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(8.18, 14.18)]</t>
+          <t>[('0:00:06.740000', '0:00:21.540000')]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>[('0:00:05.780000', '0:00:21')]</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_112</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_173</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.2202898550724638</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['G#:min', 'D#:min', 'A#:7', 'D#:min']]</t>
-        </is>
+          <t>schubert-winterreise_189</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_162</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.3506493506493507</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['C:min/G', 'G:min', 'D:7', 'G:min']]</t>
+          <t>[['G:maj/D', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(6.76, 12.96)]</t>
+          <t>[['G:maj/D', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(1.42, 5.02)]</t>
+          <t>[('0:00:58.320000', '0:00:59.680000')]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>[('0:00:23.260000', '0:00:26.800000')]</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>isophonics_140</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_111</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.1064102564102564</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['G', 'C', 'G']]</t>
-        </is>
+          <t>schubert-winterreise_31</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_96</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.4761904761904762</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['G:maj', 'C:maj/G', 'G:maj']]</t>
+          <t>[['D:maj', 'G:7', 'C:maj', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(0.465952, 5.272756)]</t>
+          <t>[['C:maj', 'F:7/D#', 'A#:maj/D', 'F:maj/C', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(16.04, 22.4)]</t>
+          <t>[('0:00:03.900000', '0:00:16.080000')]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>spotify:track:3VbGCXWRiouAq8VyMYN2MI</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[('0:01:03.880000', '0:01:14.940000')]</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_43</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_26</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_83</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>isophonics_162</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.425</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['F:min', 'C:7', 'F:min']]</t>
+          <t>[['G:maj', 'D:maj/A', 'G:maj/B'], ['D:maj/A', 'G:maj', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(41.32, 48.94)]</t>
+          <t>[['D/5', 'A', 'D'], ['A', 'D', 'A']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(9.62, 14.18)]</t>
+          <t>[('0:02:14.840000', '0:02:17.480000'), ('0:02:12.300000', '0:02:16.560000')]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>[('0:00:27.963197', '0:00:34.290634'), ('0:00:28.450816', '0:00:36.229501')]</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>spotify:track:4MLBqAEzNN89o2M9h92Z26</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_113</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_118</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['C:7', 'F:min/C', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_104</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_53</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.4166666666666667</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:min', 'A:min']]</t>
+          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(34.56, 36.42)]</t>
+          <t>[['E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(14.2, 18.8)]</t>
+          <t>[('0:00:00.240000', '0:00:09.280000')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
+          <t>[('0:00:24.860000', '0:00:45.460000')]</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_208</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_169</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.2697674418604651</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min']]</t>
-        </is>
+          <t>isophonics_162</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_129</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.3</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['G:min/D', 'D:7', 'G:min', 'G:min/D', 'D:7', 'G:min']]</t>
+          <t>[['D/5', 'A', 'D', 'A']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(11.5, 37.58)]</t>
+          <t>[['A#:maj', 'F:maj', 'A#:maj', 'F:maj']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(41.92, 59.04)]</t>
+          <t>[('0:00:27.963197', '0:00:36.229501')]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>[('0:01:47.640000', '0:01:48.840000')]</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>spotify:track:4MLBqAEzNN89o2M9h92Z26</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_128</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_52</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.05796064400715564</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['G:min/D', 'D:7', 'G:min']]</t>
-        </is>
+          <t>isophonics_47</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_209</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.4555555555555556</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:7/E', 'D:min']]</t>
+          <t>[['A', 'D', 'A', 'D']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(46.52, 48.94)]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(1.44, 6.66)]</t>
+          <t>[('0:00:01.302038', '0:00:06.740158')]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>[('0:02:18.800000', '0:02:25.800000')]</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_188</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_152</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['C:7', 'F:min/C', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_17</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_151</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:min', 'A:min']]</t>
+          <t>[['G:maj', 'E:7/G#', 'A:min', 'D:7/F#', 'G:maj']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(36.82, 38.82)]</t>
+          <t>[['F:maj', 'D:7/F#', 'G:min', 'C:7/E', 'F:maj']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(13.66, 17.9)]</t>
+          <t>[('0:01:12.080000', '0:01:19.580000')]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
+          <t>[('0:01:01.220000', '0:01:07.740000')]</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_149</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_185</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.07334525939177103</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['C:maj/G', 'G:7', 'C:maj']]</t>
-        </is>
+          <t>schubert-winterreise_186</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_138</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0.2666666666666667</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['D:maj/F#', 'A:7', 'D:maj']]</t>
+          <t>[['A#:min', 'F:min', 'C:7', 'F:min']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(32.44, 34.8)]</t>
+          <t>[['D:min', 'A:min', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(39.8, 45.4)]</t>
+          <t>[('0:00:06.920000', '0:00:13.460000')]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+          <t>[('0:00:16.720000', '0:00:26.460000')]</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_7</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_138</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:min', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_172</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_119</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>0.7083333333333333</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:min', 'A:min']]</t>
+          <t>[['B:7', 'E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(14.78, 19.02)]</t>
+          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(7.54, 16.72)]</t>
+          <t>[('0:00:14.440000', '0:00:41.800000')]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+          <t>[('0:00:34.300000', '0:00:49.840000')]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_146</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_152</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.07334525939177103</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['D:maj/F#', 'A:7', 'D:maj']]</t>
-        </is>
+          <t>schubert-winterreise_173</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_176</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>0.1001011122345804</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['C:maj/G', 'G:7', 'C:maj']]</t>
+          <t>[['D:7', 'G:min', 'G:min']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(38.62, 44.06)]</t>
+          <t>[['E:7', 'A:min', 'A:min']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(31.6, 33.8)]</t>
+          <t>[('0:00:03.440000', '0:00:07.080000')]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>[('0:00:12.780000', '0:00:16.740000')]</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
         <is>
           <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
         </is>
@@ -1113,92 +1132,44 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_61</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_6</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.06153846153846154</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['G:min/A#', 'C:min', 'G:min/A#'], ['G:min/D', 'D:7', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_155</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_10</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['B:min', 'E:min/B', 'B:min'], ['B:min/F#', 'F#:7', 'B:min']]</t>
+          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'F:7', 'A#:maj', 'D:7/A', 'G#:(3,5)', 'C:maj', 'A:(3,5,b7,b9)', 'D:min/G', 'F:maj/G', 'G:7', 'C:maj', 'C:min']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(90.6, 101.18), (42.44, 44.36)]</t>
+          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'F:7', 'A#:maj', 'D:7/A', 'G#:(3,5)', 'C:maj', 'A:(3,5,b7,b9)', 'D:min/G', 'F:maj/G', 'G:7', 'C:maj', 'C:min']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(27.36, 34.92), (79.42, 86.02)]</t>
+          <t>[('0:00:01.460000', '0:00:39.820000')]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_132</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_142</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.1177257525083612</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['A#:min/C#', 'F:min/C', 'C:7', 'F:min']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['A#:min/F', 'F:min', 'C:7', 'F:min']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(43.38, 45.8)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(1.92, 5.28)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>[('0:00:00.800000', '0:00:41.860000')]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
